--- a/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-practitioner.xlsx
@@ -475,15 +475,15 @@
   <si>
     <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
-医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
-歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
-を使用する。
-医療機関識別OID番号は、医師IDの発行者である医療機関を識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
+医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
+歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号を使用する。  
+医師IDの発行者である医療機関を識別する「医療機関コード」については、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。医療機関識別OID番号については、医療機関コード10桁の先頭に１をつけた11桁とする。
 医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
 例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」
 なお、rn:oid:1.2.392.100495.20.3.41　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。
-医師、歯科医師以外の医療者のIDの名前空間を表す system 値は今後検討する。</t>
+医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/職員ID」などの識別コードを入れること。
+例：http://www.abd-hospital.co.jp/practitioner-system</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.
